--- a/1_Measurement_and_Uncertainty/Embedded_Qs/1_b_c_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/1_b_c_Embedded_Qs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Teaching\Engr_321\Notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Teaching\Engr_290\Notebooks_290\1_Measurement_and_Uncertainty\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17539D33-64BC-4014-ACBF-A0C60A807FAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="13" xr2:uid="{B0EC896A-53C2-41A4-9B9F-2233E5594546}"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <sheet name="Matching" sheetId="16" r:id="rId15"/>
     <sheet name="True_False" sheetId="17" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,10 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="63">
-  <si>
-    <t>What type of data object is the file location on the right side of line 28 ('https:….)?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
   <si>
     <t>Correct</t>
   </si>
@@ -62,27 +58,12 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>list</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Yep!  The quotation marks indicate that this is a string.  A string is a series of characters that has no numerical value (that is, it is what we might normally just call a 'word'). </t>
-  </si>
-  <si>
-    <t>dictionary</t>
-  </si>
-  <si>
     <t>Terms</t>
   </si>
   <si>
@@ -240,12 +221,147 @@
   </si>
   <si>
     <t>Depends on your gender identity</t>
+  </si>
+  <si>
+    <t>Try to quantify the error using a standard process</t>
+  </si>
+  <si>
+    <t>Start the experiment over again</t>
+  </si>
+  <si>
+    <t>Think through your experiment to make sure there are no extraneous variables</t>
+  </si>
+  <si>
+    <t>Consider taking more data to minimize the random error</t>
+  </si>
+  <si>
+    <t>If you have error in your experiment, what should you do?  Submit all that are true</t>
+  </si>
+  <si>
+    <t>This process is called uncertainty calculation, and allows us to describe how accurate a set of data is by using numbers</t>
+  </si>
+  <si>
+    <t>Usually not necessary: every experiment has error.</t>
+  </si>
+  <si>
+    <t>This is always a good idea: is there some variable you are not accounting for?</t>
+  </si>
+  <si>
+    <t>More data points generally means that the effects of random variation are minimized.</t>
+  </si>
+  <si>
+    <t>2. Determine how many 1% errors are in 12,000</t>
+  </si>
+  <si>
+    <t>Consider this situation.  You are measuring the volume of hydrogen in Hindenburg.  Your calculations give you the answer: V = 202,000 +- 12,000 m3.   Without using a calculator, estimate the percent error (answer in percent values: so for a 12% error, answer 12)</t>
+  </si>
+  <si>
+    <t>You find that diameter of the airship is d = 41.0 +- 3.1 m.  Without using a calculator, estimate the percent error.</t>
+  </si>
+  <si>
+    <t>2. How much of that 10% is the actually error?</t>
+  </si>
+  <si>
+    <t>1.  Here you might consider: what would 10% error be?  Round that value off.</t>
+  </si>
+  <si>
+    <t>1. Consider how much error would be 1% of 202,000, then round that value off.</t>
+  </si>
+  <si>
+    <t>Smaller than 3.1 m</t>
+  </si>
+  <si>
+    <t>3.1 m</t>
+  </si>
+  <si>
+    <t>Larger than 3.1 m</t>
+  </si>
+  <si>
+    <t>I've determined that the diameter was 41.0 +- 3.1 m at 68% level of confidence.  If I want a 95% level of confidence, what will the uncertainty be?</t>
+  </si>
+  <si>
+    <t>If I want to be more sure that the true value lies in the uncertainty range, I need to make that range larger.</t>
+  </si>
+  <si>
+    <t>I've determined that the volume is 202,000 +- 12,000 m3 at a 68% level of confidence.    If I set my uncertainty to 10,000 m, what will my level of confidence be?</t>
+  </si>
+  <si>
+    <t>Smaller than 68%</t>
+  </si>
+  <si>
+    <t>Larger than 68%</t>
+  </si>
+  <si>
+    <t>If the range defined by my uncertainty is smaller than it was, I will be less confident that the true value lies in that range.   Compare this to throwing a dart: if my target area becomes smaller, I'll be less confident that the dart will hit the target.</t>
+  </si>
+  <si>
+    <t>Instead of using an uncertainty value, I write that the diameter of Hindenburg is 41.1 m.  What is the implied uncertainty?</t>
+  </si>
+  <si>
+    <t>0.05 m</t>
+  </si>
+  <si>
+    <t>0.005 m</t>
+  </si>
+  <si>
+    <t>0.01 m</t>
+  </si>
+  <si>
+    <t>0.1 m</t>
+  </si>
+  <si>
+    <t>0.5 m</t>
+  </si>
+  <si>
+    <t>41.1 m suggests that the true value lies between 40.05 and 40.15 m, so the uncertainty is 0.05 m.</t>
+  </si>
+  <si>
+    <t>I report that the speed of the Hindenburg as it was plummeting to earth was 21.2 +- 0.32 m/s.  What is wrong with this expression?  Submit all that are true.</t>
+  </si>
+  <si>
+    <t>There are the wrong number of digits in the uncertainty</t>
+  </si>
+  <si>
+    <t>The uncertainty value could not possibly be that low</t>
+  </si>
+  <si>
+    <t>The value and the uncertainty do not have the same smallest digit</t>
+  </si>
+  <si>
+    <t>The value is not accurate enough to be usable</t>
+  </si>
+  <si>
+    <t>Your uncertainty value should have 2 significant digits.</t>
+  </si>
+  <si>
+    <t>This would be determined by the data</t>
+  </si>
+  <si>
+    <t>They should always have the same smallest digit: your value cannot be more accurate than your uncertainty, and vice versa.</t>
+  </si>
+  <si>
+    <t>The time required to fully ignite the hydrogen in the airship is estimated at 0.034 s, and the temperature at 1210 degrees C.  How many significant digits do these values have, respectively?</t>
+  </si>
+  <si>
+    <t>2 and 3</t>
+  </si>
+  <si>
+    <t>2 and 4</t>
+  </si>
+  <si>
+    <t>3 and 3</t>
+  </si>
+  <si>
+    <t>3 and 4</t>
+  </si>
+  <si>
+    <t>This is a bit of a trick question: 0.034 definitely has 2 sigfigs (the zero before the numbers does not count), but the number of sigfigs in 1210 is unclear (could be 3 or 4).  This is one reason engineers use scientific notation (1.21 * 10^3 definitely has 3 sigfigs, while 1.210 * 10^3 has 4).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -293,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -304,6 +420,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -617,11 +739,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB244A87-0430-49B7-B256-2C95599B0B9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,52 +756,58 @@
   <sheetData>
     <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -687,7 +815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5AC3D-6999-45EF-A24E-EACE33C735E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -705,37 +833,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -745,7 +873,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1288959-D4A8-4114-9BA9-1B553F161851}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -763,37 +891,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -803,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F6744C-AB84-46A6-B154-ADCDC73F4916}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -820,57 +948,57 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -879,7 +1007,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C0DA99-12E2-47AF-BE37-6FE22B086204}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -896,68 +1024,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -966,11 +1094,11 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D491D28F-2C72-4ED9-9BDC-B9083B436FCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,13 +1111,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,21 +1133,21 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1028,7 +1156,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC349AE2-79BD-41D4-A5ED-62C59D9BD8CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1046,65 +1174,65 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4"/>
     </row>
@@ -1112,7 +1240,7 @@
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D6" s="4"/>
     </row>
@@ -1120,7 +1248,7 @@
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1130,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFD4C29-31D0-4FC0-9BDE-CC6D58CE522F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1147,57 +1275,57 @@
   <sheetData>
     <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1206,11 +1334,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B344FF-76AB-42DB-AA19-DB7A3C411BDC}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,42 +1349,47 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1264,11 +1397,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C22B9E-BAFD-4665-B848-E4D4BBDD2F16}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,41 +1412,43 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="A2" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -1322,11 +1457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0B108BD-5895-409A-8E08-9DFC6590E1E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1337,41 +1472,49 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -1380,11 +1523,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7D717C-976A-40C2-8F20-6D7B2F5C7AAC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,41 +1538,49 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="7">
+        <v>0.68</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -1438,11 +1589,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247BEDE9-0E39-4CD0-BDE7-8CAC98E2D3B7}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,42 +1604,63 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1496,11 +1668,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C64CEB-3B62-411B-AD41-4E5DB390DAC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1511,40 +1683,54 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1554,11 +1740,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E647E5-74D7-4085-B7FB-C2D651716B59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,40 +1755,56 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1612,7 +1814,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5443ECE8-05FA-4447-AF71-5E40FEC6A164}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1630,37 +1832,37 @@
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
     </row>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/1_b_c_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/1_b_c_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="7"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
   <si>
     <t>Correct</t>
   </si>
@@ -277,15 +277,9 @@
     <t>Larger than 3.1 m</t>
   </si>
   <si>
-    <t>I've determined that the diameter was 41.0 +- 3.1 m at 68% level of confidence.  If I want a 95% level of confidence, what will the uncertainty be?</t>
-  </si>
-  <si>
     <t>If I want to be more sure that the true value lies in the uncertainty range, I need to make that range larger.</t>
   </si>
   <si>
-    <t>I've determined that the volume is 202,000 +- 12,000 m3 at a 68% level of confidence.    If I set my uncertainty to 10,000 m, what will my level of confidence be?</t>
-  </si>
-  <si>
     <t>Smaller than 68%</t>
   </si>
   <si>
@@ -295,9 +289,6 @@
     <t>If the range defined by my uncertainty is smaller than it was, I will be less confident that the true value lies in that range.   Compare this to throwing a dart: if my target area becomes smaller, I'll be less confident that the dart will hit the target.</t>
   </si>
   <si>
-    <t>Instead of using an uncertainty value, I write that the diameter of Hindenburg is 41.1 m.  What is the implied uncertainty?</t>
-  </si>
-  <si>
     <t>0.05 m</t>
   </si>
   <si>
@@ -316,9 +307,6 @@
     <t>41.1 m suggests that the true value lies between 40.05 and 40.15 m, so the uncertainty is 0.05 m.</t>
   </si>
   <si>
-    <t>I report that the speed of the Hindenburg as it was plummeting to earth was 21.2 +- 0.32 m/s.  What is wrong with this expression?  Submit all that are true.</t>
-  </si>
-  <si>
     <t>There are the wrong number of digits in the uncertainty</t>
   </si>
   <si>
@@ -356,6 +344,24 @@
   </si>
   <si>
     <t>This is a bit of a trick question: 0.034 definitely has 2 sigfigs (the zero before the numbers does not count), but the number of sigfigs in 1210 is unclear (could be 3 or 4).  This is one reason engineers use scientific notation (1.21 * 10^3 definitely has 3 sigfigs, while 1.210 * 10^3 has 4).</t>
+  </si>
+  <si>
+    <t>You've determined that the diameter was 41.0 +- 3.1 m at 68% level of confidence.  If you want a 95% level of confidence, what will the uncertainty be?</t>
+  </si>
+  <si>
+    <t>You've determined that the volume is 202,000 +- 12,000 m3 at a 68% level of confidence.    If you set your uncertainty to 10,000 m, what will the level of confidence be?</t>
+  </si>
+  <si>
+    <t>Instead of using an uncertainty value, you write that the diameter of Hindenburg is 41.1 m.  What is the implied uncertainty?</t>
+  </si>
+  <si>
+    <t>You report that the speed of the Hindenburg as it was plummeting to earth was 21.2 +- 0.32 m/s.  What is wrong with this expression?  Submit all that are true.</t>
+  </si>
+  <si>
+    <t>2 and either 3 or 4</t>
+  </si>
+  <si>
+    <t>Either 2 or 3  and 4</t>
   </si>
 </sst>
 </file>
@@ -1460,9 +1466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1474,7 +1478,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1509,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1527,152 +1531,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>0.68</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B13" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1544,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1694,31 +1553,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>0.68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>101</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -1726,12 +1583,8 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
   </sheetData>
@@ -1739,12 +1592,89 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1687,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1766,42 +1696,128 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>2</v>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/1_b_c_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/1_b_c_Embedded_Qs.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
   <si>
     <t>Correct</t>
   </si>
@@ -359,9 +359,6 @@
   </si>
   <si>
     <t>2 and either 3 or 4</t>
-  </si>
-  <si>
-    <t>Either 2 or 3  and 4</t>
   </si>
 </sst>
 </file>
@@ -1674,7 +1671,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1744,12 +1741,8 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
       <c r="C7" s="4"/>
     </row>
   </sheetData>

--- a/1_Measurement_and_Uncertainty/Embedded_Qs/1_b_c_Embedded_Qs.xlsx
+++ b/1_Measurement_and_Uncertainty/Embedded_Qs/1_b_c_Embedded_Qs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="6"/>
+    <workbookView xWindow="2325" yWindow="2085" windowWidth="19950" windowHeight="13215" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="132">
   <si>
     <t>Correct</t>
   </si>
@@ -359,6 +359,93 @@
   </si>
   <si>
     <t>2 and either 3 or 4</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Match each situation ('term') with the word that best describes that situation ('definition').</t>
+  </si>
+  <si>
+    <t>Internal Standard</t>
+  </si>
+  <si>
+    <t>The government lists the detailed steps that must be taken every time a brake pad is tested</t>
+  </si>
+  <si>
+    <t>The government sets a maximum temperature that a brake pad can reach during an independent test in order to make that pad available to the public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The government releases a set of rules defining the minimum requirements for brake pads </t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A code usually refers to a set of rules, rather than a single rule.</t>
+  </si>
+  <si>
+    <t>A protocol usually describes a set of steps.</t>
+  </si>
+  <si>
+    <t>A brake manufacturer sets a lower maximum temperature that its own brake pad can reach during its corporate tests</t>
+  </si>
+  <si>
+    <t>Regulatory Standard</t>
+  </si>
+  <si>
+    <t>An internal standard is generally more stringent than a regulatory standard.</t>
+  </si>
+  <si>
+    <t>Interoperability</t>
+  </si>
+  <si>
+    <t>Match the desirable behavior/ outcome with justification for using standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liability </t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>A customer reads that a package of cookies has 180 calories, and can dependably know that this package has fewer calories than the package that says 220 calories</t>
+  </si>
+  <si>
+    <t>Reputation/ public trust</t>
+  </si>
+  <si>
+    <t>A exit door explodes from an airplane, but you know when your team decided which bolts to use, they were following regulatory standards</t>
+  </si>
+  <si>
+    <t>A city hired a contractor to build a bridge, but didn't open the bridge when an inspector noticed that the beams used were not up to the standard</t>
+  </si>
+  <si>
+    <t>You bought an off-brand charger for your iPhone, but it worked without any problems</t>
+  </si>
+  <si>
+    <t>A customer bought your company's refrigerator, which met the stringent internal standard for noise production, and was pleased with how quiet it was</t>
+  </si>
+  <si>
+    <t>A brand can gain customer loyalty (and charge more) if customers have good experiences with their products.</t>
+  </si>
+  <si>
+    <t>Interoperability can be helpful to customers and manufacturers.</t>
+  </si>
+  <si>
+    <t>Enforcing standards can keep unsafe products out of the marketplace.</t>
+  </si>
+  <si>
+    <t>Standards can provide protection against lawsuits in the event of product failure.</t>
+  </si>
+  <si>
+    <t>Using the same processes to test and describe products makes it easier to compare those products.</t>
   </si>
 </sst>
 </file>
@@ -819,56 +906,108 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>123</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>125</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1163,7 +1302,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -1824,56 +1963,98 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="3" max="3" width="22.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3"/>
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
